--- a/part3/tables-3/dom_validty_VER_part-3.xlsx
+++ b/part3/tables-3/dom_validty_VER_part-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="8">
   <si>
     <t>Test ID</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>['mmm']</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -429,15 +432,15 @@
         <v>0.001723</v>
       </c>
       <c r="D2">
-        <v>0.010602</v>
+        <v>0.001155</v>
       </c>
       <c r="F2">
-        <v>-5.154313</v>
+        <v>0.329598</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -446,15 +449,15 @@
         <v>0.00079</v>
       </c>
       <c r="D3">
-        <v>0.001516</v>
+        <v>0.000448</v>
       </c>
       <c r="F3">
-        <v>-0.919554</v>
+        <v>0.432709</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -463,15 +466,15 @@
         <v>0.000359</v>
       </c>
       <c r="D4">
-        <v>0.00018</v>
+        <v>0.00017</v>
       </c>
       <c r="F4">
-        <v>0.49928</v>
+        <v>0.526002</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -480,15 +483,15 @@
         <v>0.000188</v>
       </c>
       <c r="D5">
-        <v>3.6E-05</v>
+        <v>8.6E-05</v>
       </c>
       <c r="F5">
-        <v>0.809181</v>
+        <v>0.539331</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -497,15 +500,15 @@
         <v>0.002414</v>
       </c>
       <c r="D6">
-        <v>0.015896</v>
+        <v>0.001417</v>
       </c>
       <c r="F6">
-        <v>-5.583735</v>
+        <v>0.413203</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -514,15 +517,15 @@
         <v>0.001512</v>
       </c>
       <c r="D7">
-        <v>0.003095</v>
+        <v>0.000745</v>
       </c>
       <c r="F7">
-        <v>-1.046278</v>
+        <v>0.50737</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -531,15 +534,15 @@
         <v>0.000821</v>
       </c>
       <c r="D8">
-        <v>0.000521</v>
+        <v>0.000352</v>
       </c>
       <c r="F8">
-        <v>0.36463</v>
+        <v>0.5706020000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -548,15 +551,15 @@
         <v>0.000418</v>
       </c>
       <c r="D9">
-        <v>6.4E-05</v>
+        <v>0.000166</v>
       </c>
       <c r="F9">
-        <v>0.846301</v>
+        <v>0.602984</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -565,15 +568,15 @@
         <v>0.000177</v>
       </c>
       <c r="D10">
-        <v>1.4E-05</v>
+        <v>7.7E-05</v>
       </c>
       <c r="F10">
-        <v>0.920478</v>
+        <v>0.562649</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -582,15 +585,15 @@
         <v>0.002369</v>
       </c>
       <c r="D11">
-        <v>0.004572</v>
+        <v>0.001313</v>
       </c>
       <c r="F11">
-        <v>-0.930397</v>
+        <v>0.445854</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -599,15 +602,15 @@
         <v>0.001196</v>
       </c>
       <c r="D12">
-        <v>0.000746</v>
+        <v>0.000593</v>
       </c>
       <c r="F12">
-        <v>0.376211</v>
+        <v>0.50398</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -616,15 +619,15 @@
         <v>0.000583</v>
       </c>
       <c r="D13">
-        <v>0.000107</v>
+        <v>0.000281</v>
       </c>
       <c r="F13">
-        <v>0.816495</v>
+        <v>0.518631</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -633,15 +636,15 @@
         <v>0.000219</v>
       </c>
       <c r="D14">
-        <v>1.6E-05</v>
+        <v>0.00013</v>
       </c>
       <c r="F14">
-        <v>0.9263169999999999</v>
+        <v>0.405985</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -650,15 +653,15 @@
         <v>0.000138</v>
       </c>
       <c r="D15">
-        <v>7E-06</v>
+        <v>9.6E-05</v>
       </c>
       <c r="F15">
-        <v>0.947002</v>
+        <v>0.299777</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -667,15 +670,15 @@
         <v>0.001442</v>
       </c>
       <c r="D16">
-        <v>0.000853</v>
+        <v>0.000722</v>
       </c>
       <c r="F16">
-        <v>0.408007</v>
+        <v>0.499346</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -684,15 +687,15 @@
         <v>0.0009859999999999999</v>
       </c>
       <c r="D17">
-        <v>0.00016</v>
+        <v>0.000369</v>
       </c>
       <c r="F17">
-        <v>0.837827</v>
+        <v>0.626353</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -701,15 +704,15 @@
         <v>0.0005330000000000001</v>
       </c>
       <c r="D18">
-        <v>3.2E-05</v>
+        <v>0.000195</v>
       </c>
       <c r="F18">
-        <v>0.940335</v>
+        <v>0.634347</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -718,15 +721,15 @@
         <v>0.000253</v>
       </c>
       <c r="D19">
-        <v>1E-05</v>
+        <v>0.000117</v>
       </c>
       <c r="F19">
-        <v>0.9601</v>
+        <v>0.539381</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -735,15 +738,15 @@
         <v>0.002366</v>
       </c>
       <c r="D20">
-        <v>0.00126</v>
+        <v>0.00095</v>
       </c>
       <c r="F20">
-        <v>0.467395</v>
+        <v>0.598572</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -752,15 +755,15 @@
         <v>0.001208</v>
       </c>
       <c r="D21">
-        <v>0.000271</v>
+        <v>0.000539</v>
       </c>
       <c r="F21">
-        <v>0.775274</v>
+        <v>0.553995</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -769,15 +772,15 @@
         <v>0.0007</v>
       </c>
       <c r="D22">
-        <v>6.3E-05</v>
+        <v>0.000296</v>
       </c>
       <c r="F22">
-        <v>0.909392</v>
+        <v>0.576607</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -786,15 +789,15 @@
         <v>0.000332</v>
       </c>
       <c r="D23">
-        <v>1.9E-05</v>
+        <v>0.000166</v>
       </c>
       <c r="F23">
-        <v>0.943863</v>
+        <v>0.500418</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -803,15 +806,15 @@
         <v>0.002846</v>
       </c>
       <c r="D24">
-        <v>0.002023</v>
+        <v>0.001526</v>
       </c>
       <c r="F24">
-        <v>0.289263</v>
+        <v>0.463702</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -820,15 +823,15 @@
         <v>0.001858</v>
       </c>
       <c r="D25">
-        <v>0.000575</v>
+        <v>0.000898</v>
       </c>
       <c r="F25">
-        <v>0.690356</v>
+        <v>0.516621</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -837,15 +840,15 @@
         <v>0.001024</v>
       </c>
       <c r="D26">
-        <v>0.000174</v>
+        <v>0.000532</v>
       </c>
       <c r="F26">
-        <v>0.829888</v>
+        <v>0.480968</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -854,15 +857,15 @@
         <v>0.000489</v>
       </c>
       <c r="D27">
-        <v>5.5E-05</v>
+        <v>0.000295</v>
       </c>
       <c r="F27">
-        <v>0.888246</v>
+        <v>0.396185</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -871,15 +874,15 @@
         <v>0.001752</v>
       </c>
       <c r="D28">
-        <v>0.010602</v>
+        <v>0.001155</v>
       </c>
       <c r="F28">
-        <v>-5.049886</v>
+        <v>0.340973</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -888,15 +891,15 @@
         <v>0.000843</v>
       </c>
       <c r="D29">
-        <v>0.001516</v>
+        <v>0.000448</v>
       </c>
       <c r="F29">
-        <v>-0.797029</v>
+        <v>0.468919</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -905,15 +908,15 @@
         <v>0.000341</v>
       </c>
       <c r="D30">
-        <v>0.00018</v>
+        <v>0.00017</v>
       </c>
       <c r="F30">
-        <v>0.472926</v>
+        <v>0.501055</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -922,15 +925,15 @@
         <v>0.000186</v>
       </c>
       <c r="D31">
-        <v>3.6E-05</v>
+        <v>8.6E-05</v>
       </c>
       <c r="F31">
-        <v>0.807604</v>
+        <v>0.535524</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -939,15 +942,15 @@
         <v>0.002357</v>
       </c>
       <c r="D32">
-        <v>0.015896</v>
+        <v>0.001417</v>
       </c>
       <c r="F32">
-        <v>-5.744323</v>
+        <v>0.39889</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -956,15 +959,15 @@
         <v>0.001507</v>
       </c>
       <c r="D33">
-        <v>0.003095</v>
+        <v>0.000745</v>
       </c>
       <c r="F33">
-        <v>-1.053771</v>
+        <v>0.505566</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -973,15 +976,15 @@
         <v>0.000783</v>
       </c>
       <c r="D34">
-        <v>0.000521</v>
+        <v>0.000352</v>
       </c>
       <c r="F34">
-        <v>0.334036</v>
+        <v>0.549925</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -990,15 +993,15 @@
         <v>0.000381</v>
       </c>
       <c r="D35">
-        <v>6.4E-05</v>
+        <v>0.000166</v>
       </c>
       <c r="F35">
-        <v>0.831079</v>
+        <v>0.563665</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1007,15 +1010,15 @@
         <v>0.000188</v>
       </c>
       <c r="D36">
-        <v>1.4E-05</v>
+        <v>7.7E-05</v>
       </c>
       <c r="F36">
-        <v>0.92496</v>
+        <v>0.587301</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1024,15 +1027,15 @@
         <v>0.002376</v>
       </c>
       <c r="D37">
-        <v>0.004572</v>
+        <v>0.001313</v>
       </c>
       <c r="F37">
-        <v>-0.924013</v>
+        <v>0.447687</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1041,15 +1044,15 @@
         <v>0.00121</v>
       </c>
       <c r="D38">
-        <v>0.000746</v>
+        <v>0.000593</v>
       </c>
       <c r="F38">
-        <v>0.383727</v>
+        <v>0.509956</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1058,15 +1061,15 @@
         <v>0.000583</v>
       </c>
       <c r="D39">
-        <v>0.000107</v>
+        <v>0.000281</v>
       </c>
       <c r="F39">
-        <v>0.816495</v>
+        <v>0.518631</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1075,15 +1078,15 @@
         <v>0.000219</v>
       </c>
       <c r="D40">
-        <v>1.6E-05</v>
+        <v>0.00013</v>
       </c>
       <c r="F40">
-        <v>0.9263169999999999</v>
+        <v>0.405985</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1092,15 +1095,15 @@
         <v>0.00014</v>
       </c>
       <c r="D41">
-        <v>7E-06</v>
+        <v>9.6E-05</v>
       </c>
       <c r="F41">
-        <v>0.947948</v>
+        <v>0.312281</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1109,15 +1112,15 @@
         <v>0.001442</v>
       </c>
       <c r="D42">
-        <v>0.000853</v>
+        <v>0.000722</v>
       </c>
       <c r="F42">
-        <v>0.408007</v>
+        <v>0.499346</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1126,15 +1129,15 @@
         <v>0.000973</v>
       </c>
       <c r="D43">
-        <v>0.00016</v>
+        <v>0.000369</v>
       </c>
       <c r="F43">
-        <v>0.835606</v>
+        <v>0.621235</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1143,15 +1146,15 @@
         <v>0.0005330000000000001</v>
       </c>
       <c r="D44">
-        <v>3.2E-05</v>
+        <v>0.000195</v>
       </c>
       <c r="F44">
-        <v>0.940335</v>
+        <v>0.634347</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1160,15 +1163,15 @@
         <v>0.00024</v>
       </c>
       <c r="D45">
-        <v>1E-05</v>
+        <v>0.000117</v>
       </c>
       <c r="F45">
-        <v>0.957883</v>
+        <v>0.513791</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1177,15 +1180,15 @@
         <v>0.002333</v>
       </c>
       <c r="D46">
-        <v>0.00126</v>
+        <v>0.00095</v>
       </c>
       <c r="F46">
-        <v>0.459851</v>
+        <v>0.592886</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1194,15 +1197,15 @@
         <v>0.00128</v>
       </c>
       <c r="D47">
-        <v>0.000271</v>
+        <v>0.000539</v>
       </c>
       <c r="F47">
-        <v>0.787882</v>
+        <v>0.579017</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1211,15 +1214,15 @@
         <v>0.000675</v>
       </c>
       <c r="D48">
-        <v>6.3E-05</v>
+        <v>0.000296</v>
       </c>
       <c r="F48">
-        <v>0.906097</v>
+        <v>0.561211</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1228,15 +1231,15 @@
         <v>0.000307</v>
       </c>
       <c r="D49">
-        <v>1.9E-05</v>
+        <v>0.000166</v>
       </c>
       <c r="F49">
-        <v>0.939372</v>
+        <v>0.460451</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1245,15 +1248,15 @@
         <v>0.002852</v>
       </c>
       <c r="D50">
-        <v>0.002023</v>
+        <v>0.001526</v>
       </c>
       <c r="F50">
-        <v>0.290792</v>
+        <v>0.464856</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1262,15 +1265,15 @@
         <v>0.001836</v>
       </c>
       <c r="D51">
-        <v>0.000575</v>
+        <v>0.000898</v>
       </c>
       <c r="F51">
-        <v>0.686517</v>
+        <v>0.5106270000000001</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1279,15 +1282,15 @@
         <v>0.0009790000000000001</v>
       </c>
       <c r="D52">
-        <v>0.000174</v>
+        <v>0.000532</v>
       </c>
       <c r="F52">
-        <v>0.821976</v>
+        <v>0.456827</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1296,15 +1299,15 @@
         <v>0.000467</v>
       </c>
       <c r="D53">
-        <v>5.5E-05</v>
+        <v>0.000295</v>
       </c>
       <c r="F53">
-        <v>0.882795</v>
+        <v>0.366731</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1313,15 +1316,15 @@
         <v>0.001937</v>
       </c>
       <c r="D54">
-        <v>0.015568</v>
+        <v>0.001346</v>
       </c>
       <c r="F54">
-        <v>-7.037406</v>
+        <v>0.305276</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1330,15 +1333,15 @@
         <v>0.000802</v>
       </c>
       <c r="D55">
-        <v>0.002226</v>
+        <v>0.000521</v>
       </c>
       <c r="F55">
-        <v>-1.776506</v>
+        <v>0.3502</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -1347,15 +1350,15 @@
         <v>0.000353</v>
       </c>
       <c r="D56">
-        <v>0.000257</v>
+        <v>0.000197</v>
       </c>
       <c r="F56">
-        <v>0.274183</v>
+        <v>0.443108</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -1364,15 +1367,15 @@
         <v>0.000159</v>
       </c>
       <c r="D57">
-        <v>4.7E-05</v>
+        <v>9.8E-05</v>
       </c>
       <c r="F57">
-        <v>0.706852</v>
+        <v>0.384503</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -1381,15 +1384,15 @@
         <v>0.002717</v>
       </c>
       <c r="D58">
-        <v>0.022917</v>
+        <v>0.001625</v>
       </c>
       <c r="F58">
-        <v>-7.43387</v>
+        <v>0.401985</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -1398,15 +1401,15 @@
         <v>0.001656</v>
       </c>
       <c r="D59">
-        <v>0.004446</v>
+        <v>0.000849</v>
       </c>
       <c r="F59">
-        <v>-1.684441</v>
+        <v>0.487242</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -1415,15 +1418,15 @@
         <v>0.000879</v>
       </c>
       <c r="D60">
-        <v>0.000703</v>
+        <v>0.000398</v>
       </c>
       <c r="F60">
-        <v>0.200871</v>
+        <v>0.547423</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -1432,15 +1435,15 @@
         <v>0.000424</v>
       </c>
       <c r="D61">
-        <v>8.7E-05</v>
+        <v>0.000186</v>
       </c>
       <c r="F61">
-        <v>0.793678</v>
+        <v>0.560794</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1449,15 +1452,15 @@
         <v>0.000165</v>
       </c>
       <c r="D62">
-        <v>1.7E-05</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="F62">
-        <v>0.896681</v>
+        <v>0.484976</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1466,15 +1469,15 @@
         <v>0.002532</v>
       </c>
       <c r="D63">
-        <v>0.006116</v>
+        <v>0.001458</v>
       </c>
       <c r="F63">
-        <v>-1.415958</v>
+        <v>0.424145</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -1483,15 +1486,15 @@
         <v>0.001355</v>
       </c>
       <c r="D64">
-        <v>0.001014</v>
+        <v>0.000662</v>
       </c>
       <c r="F64">
-        <v>0.251749</v>
+        <v>0.5114570000000001</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -1500,15 +1503,15 @@
         <v>0.000603</v>
       </c>
       <c r="D65">
-        <v>0.000143</v>
+        <v>0.000312</v>
       </c>
       <c r="F65">
-        <v>0.763087</v>
+        <v>0.481632</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -1517,15 +1520,15 @@
         <v>0.000239</v>
       </c>
       <c r="D66">
-        <v>2E-05</v>
+        <v>0.000143</v>
       </c>
       <c r="F66">
-        <v>0.915708</v>
+        <v>0.400243</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -1534,15 +1537,15 @@
         <v>0.000156</v>
       </c>
       <c r="D67">
-        <v>8E-06</v>
+        <v>0.000104</v>
       </c>
       <c r="F67">
-        <v>0.946785</v>
+        <v>0.330846</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -1551,15 +1554,15 @@
         <v>0.001661</v>
       </c>
       <c r="D68">
-        <v>0.001154</v>
+        <v>0.0008050000000000001</v>
       </c>
       <c r="F68">
-        <v>0.305399</v>
+        <v>0.515467</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -1568,15 +1571,15 @@
         <v>0.001039</v>
       </c>
       <c r="D69">
-        <v>0.00021</v>
+        <v>0.000408</v>
       </c>
       <c r="F69">
-        <v>0.79804</v>
+        <v>0.60716</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -1585,15 +1588,15 @@
         <v>0.000595</v>
       </c>
       <c r="D70">
-        <v>4E-05</v>
+        <v>0.000214</v>
       </c>
       <c r="F70">
-        <v>0.933461</v>
+        <v>0.6404300000000001</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -1602,15 +1605,15 @@
         <v>0.000307</v>
       </c>
       <c r="D71">
-        <v>1.2E-05</v>
+        <v>0.000126</v>
       </c>
       <c r="F71">
-        <v>0.961762</v>
+        <v>0.588272</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -1619,15 +1622,15 @@
         <v>0.002571</v>
       </c>
       <c r="D72">
-        <v>0.00163</v>
+        <v>0.001046</v>
       </c>
       <c r="F72">
-        <v>0.365979</v>
+        <v>0.593032</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -1636,15 +1639,15 @@
         <v>0.001468</v>
       </c>
       <c r="D73">
-        <v>0.000347</v>
+        <v>0.000593</v>
       </c>
       <c r="F73">
-        <v>0.763558</v>
+        <v>0.596019</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -1653,15 +1656,15 @@
         <v>0.0008140000000000001</v>
       </c>
       <c r="D74">
-        <v>7.8E-05</v>
+        <v>0.000324</v>
       </c>
       <c r="F74">
-        <v>0.90422</v>
+        <v>0.601519</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -1670,15 +1673,15 @@
         <v>0.000385</v>
       </c>
       <c r="D75">
-        <v>2.2E-05</v>
+        <v>0.00018</v>
       </c>
       <c r="F75">
-        <v>0.943858</v>
+        <v>0.533323</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -1687,15 +1690,15 @@
         <v>0.00319</v>
       </c>
       <c r="D76">
-        <v>0.002523</v>
+        <v>0.001673</v>
       </c>
       <c r="F76">
-        <v>0.209175</v>
+        <v>0.475679</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -1704,15 +1707,15 @@
         <v>0.002046</v>
       </c>
       <c r="D77">
-        <v>0.000712</v>
+        <v>0.0009829999999999999</v>
       </c>
       <c r="F77">
-        <v>0.6521980000000001</v>
+        <v>0.519601</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -1721,15 +1724,15 @@
         <v>0.00119</v>
       </c>
       <c r="D78">
-        <v>0.00021</v>
+        <v>0.00058</v>
       </c>
       <c r="F78">
-        <v>0.823727</v>
+        <v>0.513189</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -1738,29 +1741,32 @@
         <v>0.000603</v>
       </c>
       <c r="D79">
-        <v>6.3E-05</v>
+        <v>0.00032</v>
       </c>
       <c r="F79">
-        <v>0.895371</v>
+        <v>0.468607</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
       </c>
       <c r="C80">
         <v>0.001494</v>
       </c>
       <c r="D80">
-        <v>0.01416</v>
+        <v>0.001057</v>
       </c>
       <c r="F80">
-        <v>-8.478439</v>
+        <v>0.292403</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -1769,15 +1775,15 @@
         <v>0.000687</v>
       </c>
       <c r="D81">
-        <v>0.001538</v>
+        <v>0.000395</v>
       </c>
       <c r="F81">
-        <v>-1.23807</v>
+        <v>0.425294</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -1786,15 +1792,15 @@
         <v>0.000359</v>
       </c>
       <c r="D82">
-        <v>0.000208</v>
+        <v>0.000179</v>
       </c>
       <c r="F82">
-        <v>0.420914</v>
+        <v>0.499847</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -1803,29 +1809,32 @@
         <v>0.002438</v>
       </c>
       <c r="D83">
-        <v>0.024246</v>
+        <v>0.001568</v>
       </c>
       <c r="F83">
-        <v>-8.946603</v>
+        <v>0.356786</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
       </c>
       <c r="C84">
         <v>0.001313</v>
       </c>
       <c r="D84">
-        <v>0.00307</v>
+        <v>0.000705</v>
       </c>
       <c r="F84">
-        <v>-1.338871</v>
+        <v>0.462708</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -1834,15 +1843,15 @@
         <v>0.000696</v>
       </c>
       <c r="D85">
-        <v>0.000416</v>
+        <v>0.000324</v>
       </c>
       <c r="F85">
-        <v>0.403312</v>
+        <v>0.534676</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -1851,15 +1860,15 @@
         <v>0.000348</v>
       </c>
       <c r="D86">
-        <v>5.4E-05</v>
+        <v>0.000138</v>
       </c>
       <c r="F86">
-        <v>0.8454199999999999</v>
+        <v>0.604171</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
@@ -1868,15 +1877,15 @@
         <v>0.003559</v>
       </c>
       <c r="D87">
-        <v>0.024262</v>
+        <v>0.002375</v>
       </c>
       <c r="F87">
-        <v>-5.816774</v>
+        <v>0.332792</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -1885,15 +1894,15 @@
         <v>0.001845</v>
       </c>
       <c r="D88">
-        <v>0.004391</v>
+        <v>0.001109</v>
       </c>
       <c r="F88">
-        <v>-1.380039</v>
+        <v>0.398836</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -1902,15 +1911,15 @@
         <v>0.000922</v>
       </c>
       <c r="D89">
-        <v>0.000599</v>
+        <v>0.00052</v>
       </c>
       <c r="F89">
-        <v>0.350794</v>
+        <v>0.436146</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -1919,15 +1928,15 @@
         <v>0.000437</v>
       </c>
       <c r="D90">
-        <v>6.7E-05</v>
+        <v>0.000231</v>
       </c>
       <c r="F90">
-        <v>0.846013</v>
+        <v>0.472461</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
@@ -1936,15 +1945,15 @@
         <v>0.000267</v>
       </c>
       <c r="D91">
-        <v>1.8E-05</v>
+        <v>0.000157</v>
       </c>
       <c r="F91">
-        <v>0.932145</v>
+        <v>0.411244</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -1953,15 +1962,15 @@
         <v>0.002563</v>
       </c>
       <c r="D92">
-        <v>0.004781</v>
+        <v>0.001338</v>
       </c>
       <c r="F92">
-        <v>-0.8656740000000001</v>
+        <v>0.477956</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -1970,15 +1979,15 @@
         <v>0.001443</v>
       </c>
       <c r="D93">
-        <v>0.0008</v>
+        <v>0.000663</v>
       </c>
       <c r="F93">
-        <v>0.44526</v>
+        <v>0.54078</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -1987,15 +1996,15 @@
         <v>0.000821</v>
       </c>
       <c r="D94">
-        <v>0.000125</v>
+        <v>0.000337</v>
       </c>
       <c r="F94">
-        <v>0.848083</v>
+        <v>0.58983</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2004,15 +2013,15 @@
         <v>0.0004</v>
       </c>
       <c r="D95">
-        <v>2.7E-05</v>
+        <v>0.000188</v>
       </c>
       <c r="F95">
-        <v>0.932279</v>
+        <v>0.529824</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2021,15 +2030,15 @@
         <v>0.003058</v>
       </c>
       <c r="D96">
-        <v>0.005542</v>
+        <v>0.001641</v>
       </c>
       <c r="F96">
-        <v>-0.812159</v>
+        <v>0.463623</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2038,15 +2047,15 @@
         <v>0.001922</v>
       </c>
       <c r="D97">
-        <v>0.001148</v>
+        <v>0.000932</v>
       </c>
       <c r="F97">
-        <v>0.40239</v>
+        <v>0.514981</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2055,15 +2064,15 @@
         <v>0.001104</v>
       </c>
       <c r="D98">
-        <v>0.000225</v>
+        <v>0.0005</v>
       </c>
       <c r="F98">
-        <v>0.796241</v>
+        <v>0.546855</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2072,15 +2081,15 @@
         <v>0.000532</v>
       </c>
       <c r="D99">
-        <v>4.9E-05</v>
+        <v>0.000267</v>
       </c>
       <c r="F99">
-        <v>0.908446</v>
+        <v>0.497457</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2089,15 +2098,15 @@
         <v>0.003851</v>
       </c>
       <c r="D100">
-        <v>0.007006</v>
+        <v>0.002556</v>
       </c>
       <c r="F100">
-        <v>-0.819487</v>
+        <v>0.336085</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2106,15 +2115,15 @@
         <v>0.00258</v>
       </c>
       <c r="D101">
-        <v>0.001949</v>
+        <v>0.001494</v>
       </c>
       <c r="F101">
-        <v>0.244408</v>
+        <v>0.420775</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2123,15 +2132,15 @@
         <v>0.001592</v>
       </c>
       <c r="D102">
-        <v>0.000529</v>
+        <v>0.00087</v>
       </c>
       <c r="F102">
-        <v>0.667552</v>
+        <v>0.453481</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2140,15 +2149,15 @@
         <v>0.000796</v>
       </c>
       <c r="D103">
-        <v>0.000135</v>
+        <v>0.000473</v>
       </c>
       <c r="F103">
-        <v>0.830833</v>
+        <v>0.40597</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2157,15 +2166,15 @@
         <v>0.001189</v>
       </c>
       <c r="D104">
-        <v>0.002099</v>
+        <v>0.000594</v>
       </c>
       <c r="F104">
-        <v>-0.764974</v>
+        <v>0.500216</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2174,15 +2183,15 @@
         <v>0.000478</v>
       </c>
       <c r="D105">
-        <v>0.000312</v>
+        <v>0.000234</v>
       </c>
       <c r="F105">
-        <v>0.347251</v>
+        <v>0.510057</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -2191,15 +2200,15 @@
         <v>0.000209</v>
       </c>
       <c r="D106">
-        <v>4.7E-05</v>
+        <v>9.3E-05</v>
       </c>
       <c r="F106">
-        <v>0.776302</v>
+        <v>0.557361</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -2208,15 +2217,15 @@
         <v>9.2E-05</v>
       </c>
       <c r="D107">
-        <v>1.6E-05</v>
+        <v>5.3E-05</v>
       </c>
       <c r="F107">
-        <v>0.824773</v>
+        <v>0.426362</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -2225,15 +2234,15 @@
         <v>0.001768</v>
       </c>
       <c r="D108">
-        <v>0.003362</v>
+        <v>0.000781</v>
       </c>
       <c r="F108">
-        <v>-0.90164</v>
+        <v>0.5584170000000001</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -2242,15 +2251,15 @@
         <v>0.001152</v>
       </c>
       <c r="D109">
-        <v>0.000656</v>
+        <v>0.000423</v>
       </c>
       <c r="F109">
-        <v>0.430775</v>
+        <v>0.63236</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -2259,15 +2268,15 @@
         <v>0.000589</v>
       </c>
       <c r="D110">
-        <v>0.000157</v>
+        <v>0.000209</v>
       </c>
       <c r="F110">
-        <v>0.734372</v>
+        <v>0.645169</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -2276,15 +2285,15 @@
         <v>0.000316</v>
       </c>
       <c r="D111">
-        <v>2E-05</v>
+        <v>0.000104</v>
       </c>
       <c r="F111">
-        <v>0.93692</v>
+        <v>0.672386</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -2293,15 +2302,15 @@
         <v>0.000124</v>
       </c>
       <c r="D112">
-        <v>8E-06</v>
+        <v>5.3E-05</v>
       </c>
       <c r="F112">
-        <v>0.939407</v>
+        <v>0.572145</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -2310,15 +2319,15 @@
         <v>0.001918</v>
       </c>
       <c r="D113">
-        <v>0.001334</v>
+        <v>0.00083</v>
       </c>
       <c r="F113">
-        <v>0.304299</v>
+        <v>0.566959</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -2327,15 +2336,15 @@
         <v>0.000922</v>
       </c>
       <c r="D114">
-        <v>0.000207</v>
+        <v>0.000369</v>
       </c>
       <c r="F114">
-        <v>0.776018</v>
+        <v>0.599973</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -2344,15 +2353,15 @@
         <v>0.000437</v>
       </c>
       <c r="D115">
-        <v>3.4E-05</v>
+        <v>0.000179</v>
       </c>
       <c r="F115">
-        <v>0.921799</v>
+        <v>0.590342</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -2361,15 +2370,15 @@
         <v>0.000184</v>
       </c>
       <c r="D116">
-        <v>7E-06</v>
+        <v>8.8E-05</v>
       </c>
       <c r="F116">
-        <v>0.960606</v>
+        <v>0.524047</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -2378,15 +2387,15 @@
         <v>9.7E-05</v>
       </c>
       <c r="D117">
-        <v>5E-06</v>
+        <v>6.9E-05</v>
       </c>
       <c r="F117">
-        <v>0.950519</v>
+        <v>0.284764</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -2395,15 +2404,15 @@
         <v>0.001221</v>
       </c>
       <c r="D118">
-        <v>0.000241</v>
+        <v>0.000452</v>
       </c>
       <c r="F118">
-        <v>0.8028419999999999</v>
+        <v>0.6301290000000001</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -2412,15 +2421,15 @@
         <v>0.000777</v>
       </c>
       <c r="D119">
-        <v>5.4E-05</v>
+        <v>0.000239</v>
       </c>
       <c r="F119">
-        <v>0.9308959999999999</v>
+        <v>0.692739</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -2429,15 +2438,15 @@
         <v>0.000466</v>
       </c>
       <c r="D120">
-        <v>1.4E-05</v>
+        <v>0.000132</v>
       </c>
       <c r="F120">
-        <v>0.970418</v>
+        <v>0.71606</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -2446,15 +2455,15 @@
         <v>0.0002</v>
       </c>
       <c r="D121">
-        <v>6E-06</v>
+        <v>8.4E-05</v>
       </c>
       <c r="F121">
-        <v>0.969964</v>
+        <v>0.577479</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -2463,15 +2472,15 @@
         <v>0.001881</v>
       </c>
       <c r="D122">
-        <v>0.000426</v>
+        <v>0.000624</v>
       </c>
       <c r="F122">
-        <v>0.773474</v>
+        <v>0.6683480000000001</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -2480,15 +2489,15 @@
         <v>0.001165</v>
       </c>
       <c r="D123">
-        <v>9.899999999999999E-05</v>
+        <v>0.000357</v>
       </c>
       <c r="F123">
-        <v>0.914648</v>
+        <v>0.694031</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -2497,15 +2506,15 @@
         <v>0.000675</v>
       </c>
       <c r="D124">
-        <v>2.8E-05</v>
+        <v>0.000202</v>
       </c>
       <c r="F124">
-        <v>0.957994</v>
+        <v>0.700076</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -2514,15 +2523,15 @@
         <v>0.000286</v>
       </c>
       <c r="D125">
-        <v>1.1E-05</v>
+        <v>0.000119</v>
       </c>
       <c r="F125">
-        <v>0.962256</v>
+        <v>0.585684</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -2531,15 +2540,15 @@
         <v>0.002536</v>
       </c>
       <c r="D126">
-        <v>0.000778</v>
+        <v>0.001023</v>
       </c>
       <c r="F126">
-        <v>0.693102</v>
+        <v>0.596589</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -2548,15 +2557,15 @@
         <v>0.001629</v>
       </c>
       <c r="D127">
-        <v>0.000237</v>
+        <v>0.000608</v>
       </c>
       <c r="F127">
-        <v>0.854509</v>
+        <v>0.626642</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -2565,27 +2574,27 @@
         <v>0.000985</v>
       </c>
       <c r="D128">
-        <v>8.3E-05</v>
+        <v>0.000367</v>
       </c>
       <c r="F128">
-        <v>0.915666</v>
+        <v>0.627069</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129">
         <v>0.000455</v>
       </c>
       <c r="D129">
-        <v>3.2E-05</v>
+        <v>0.000249</v>
       </c>
       <c r="F129">
-        <v>0.929791</v>
+        <v>0.452031</v>
       </c>
     </row>
   </sheetData>

--- a/part3/tables-3/dom_validty_VER_part-3.xlsx
+++ b/part3/tables-3/dom_validty_VER_part-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="7">
   <si>
     <t>Test ID</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>['mmm']</t>
   </si>
 </sst>
 </file>
@@ -432,10 +429,10 @@
         <v>0.001723</v>
       </c>
       <c r="D2">
-        <v>0.001155</v>
+        <v>0.001026</v>
       </c>
       <c r="F2">
-        <v>0.329598</v>
+        <v>0.404443</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +446,10 @@
         <v>0.00079</v>
       </c>
       <c r="D3">
-        <v>0.000448</v>
+        <v>0.000441</v>
       </c>
       <c r="F3">
-        <v>0.432709</v>
+        <v>0.441958</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -466,10 +463,10 @@
         <v>0.000359</v>
       </c>
       <c r="D4">
-        <v>0.00017</v>
+        <v>0.000191</v>
       </c>
       <c r="F4">
-        <v>0.526002</v>
+        <v>0.4685</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -483,10 +480,10 @@
         <v>0.000188</v>
       </c>
       <c r="D5">
-        <v>8.6E-05</v>
+        <v>0.000108</v>
       </c>
       <c r="F5">
-        <v>0.539331</v>
+        <v>0.422579</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,10 +497,10 @@
         <v>0.002414</v>
       </c>
       <c r="D6">
-        <v>0.001417</v>
+        <v>0.001681</v>
       </c>
       <c r="F6">
-        <v>0.413203</v>
+        <v>0.303823</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -517,10 +514,10 @@
         <v>0.001512</v>
       </c>
       <c r="D7">
-        <v>0.000745</v>
+        <v>0.000888</v>
       </c>
       <c r="F7">
-        <v>0.50737</v>
+        <v>0.412514</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -534,10 +531,10 @@
         <v>0.000821</v>
       </c>
       <c r="D8">
-        <v>0.000352</v>
+        <v>0.000471</v>
       </c>
       <c r="F8">
-        <v>0.5706020000000001</v>
+        <v>0.426084</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -551,10 +548,10 @@
         <v>0.000418</v>
       </c>
       <c r="D9">
-        <v>0.000166</v>
+        <v>0.000193</v>
       </c>
       <c r="F9">
-        <v>0.602984</v>
+        <v>0.5379429999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -568,10 +565,10 @@
         <v>0.000177</v>
       </c>
       <c r="D10">
-        <v>7.7E-05</v>
+        <v>0.000102</v>
       </c>
       <c r="F10">
-        <v>0.562649</v>
+        <v>0.423364</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -585,10 +582,10 @@
         <v>0.002369</v>
       </c>
       <c r="D11">
-        <v>0.001313</v>
+        <v>0.001982</v>
       </c>
       <c r="F11">
-        <v>0.445854</v>
+        <v>0.163109</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -602,10 +599,10 @@
         <v>0.001196</v>
       </c>
       <c r="D12">
-        <v>0.000593</v>
+        <v>0.000728</v>
       </c>
       <c r="F12">
-        <v>0.50398</v>
+        <v>0.391073</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -619,10 +616,10 @@
         <v>0.000583</v>
       </c>
       <c r="D13">
-        <v>0.000281</v>
+        <v>0.000321</v>
       </c>
       <c r="F13">
-        <v>0.518631</v>
+        <v>0.449214</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -636,10 +633,10 @@
         <v>0.000219</v>
       </c>
       <c r="D14">
-        <v>0.00013</v>
+        <v>0.000164</v>
       </c>
       <c r="F14">
-        <v>0.405985</v>
+        <v>0.251425</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -653,10 +650,10 @@
         <v>0.000138</v>
       </c>
       <c r="D15">
-        <v>9.6E-05</v>
+        <v>0.00011</v>
       </c>
       <c r="F15">
-        <v>0.299777</v>
+        <v>0.20112</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -670,10 +667,10 @@
         <v>0.001442</v>
       </c>
       <c r="D16">
-        <v>0.000722</v>
+        <v>0.000875</v>
       </c>
       <c r="F16">
-        <v>0.499346</v>
+        <v>0.393235</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -687,10 +684,10 @@
         <v>0.0009859999999999999</v>
       </c>
       <c r="D17">
-        <v>0.000369</v>
+        <v>0.000436</v>
       </c>
       <c r="F17">
-        <v>0.626353</v>
+        <v>0.5578880000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -704,10 +701,10 @@
         <v>0.0005330000000000001</v>
       </c>
       <c r="D18">
-        <v>0.000195</v>
+        <v>0.000239</v>
       </c>
       <c r="F18">
-        <v>0.634347</v>
+        <v>0.552422</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -721,10 +718,10 @@
         <v>0.000253</v>
       </c>
       <c r="D19">
-        <v>0.000117</v>
+        <v>0.000143</v>
       </c>
       <c r="F19">
-        <v>0.539381</v>
+        <v>0.435848</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -738,10 +735,10 @@
         <v>0.002366</v>
       </c>
       <c r="D20">
-        <v>0.00095</v>
+        <v>0.0013</v>
       </c>
       <c r="F20">
-        <v>0.598572</v>
+        <v>0.450331</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -755,10 +752,10 @@
         <v>0.001208</v>
       </c>
       <c r="D21">
-        <v>0.000539</v>
+        <v>0.000662</v>
       </c>
       <c r="F21">
-        <v>0.553995</v>
+        <v>0.451954</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -772,10 +769,10 @@
         <v>0.0007</v>
       </c>
       <c r="D22">
-        <v>0.000296</v>
+        <v>0.000358</v>
       </c>
       <c r="F22">
-        <v>0.576607</v>
+        <v>0.48809</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -789,10 +786,10 @@
         <v>0.000332</v>
       </c>
       <c r="D23">
-        <v>0.000166</v>
+        <v>0.000201</v>
       </c>
       <c r="F23">
-        <v>0.500418</v>
+        <v>0.392428</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -806,10 +803,10 @@
         <v>0.002846</v>
       </c>
       <c r="D24">
-        <v>0.001526</v>
+        <v>0.001981</v>
       </c>
       <c r="F24">
-        <v>0.463702</v>
+        <v>0.303841</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -823,10 +820,10 @@
         <v>0.001858</v>
       </c>
       <c r="D25">
-        <v>0.000898</v>
+        <v>0.00111</v>
       </c>
       <c r="F25">
-        <v>0.516621</v>
+        <v>0.402927</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -840,10 +837,10 @@
         <v>0.001024</v>
       </c>
       <c r="D26">
-        <v>0.000532</v>
+        <v>0.000638</v>
       </c>
       <c r="F26">
-        <v>0.480968</v>
+        <v>0.376576</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -857,10 +854,10 @@
         <v>0.000489</v>
       </c>
       <c r="D27">
-        <v>0.000295</v>
+        <v>0.000363</v>
       </c>
       <c r="F27">
-        <v>0.396185</v>
+        <v>0.257976</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -874,10 +871,10 @@
         <v>0.001752</v>
       </c>
       <c r="D28">
-        <v>0.001155</v>
+        <v>0.001026</v>
       </c>
       <c r="F28">
-        <v>0.340973</v>
+        <v>0.414549</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -891,10 +888,10 @@
         <v>0.000843</v>
       </c>
       <c r="D29">
-        <v>0.000448</v>
+        <v>0.000441</v>
       </c>
       <c r="F29">
-        <v>0.468919</v>
+        <v>0.477578</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -908,10 +905,10 @@
         <v>0.000341</v>
       </c>
       <c r="D30">
-        <v>0.00017</v>
+        <v>0.000191</v>
       </c>
       <c r="F30">
-        <v>0.501055</v>
+        <v>0.440527</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -925,10 +922,10 @@
         <v>0.000186</v>
       </c>
       <c r="D31">
-        <v>8.6E-05</v>
+        <v>0.000108</v>
       </c>
       <c r="F31">
-        <v>0.535524</v>
+        <v>0.417807</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -942,10 +939,10 @@
         <v>0.002357</v>
       </c>
       <c r="D32">
-        <v>0.001417</v>
+        <v>0.001681</v>
       </c>
       <c r="F32">
-        <v>0.39889</v>
+        <v>0.286842</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -959,10 +956,10 @@
         <v>0.001507</v>
       </c>
       <c r="D33">
-        <v>0.000745</v>
+        <v>0.000888</v>
       </c>
       <c r="F33">
-        <v>0.505566</v>
+        <v>0.410363</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -976,10 +973,10 @@
         <v>0.000783</v>
       </c>
       <c r="D34">
-        <v>0.000352</v>
+        <v>0.000471</v>
       </c>
       <c r="F34">
-        <v>0.549925</v>
+        <v>0.398449</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -993,10 +990,10 @@
         <v>0.000381</v>
       </c>
       <c r="D35">
-        <v>0.000166</v>
+        <v>0.000193</v>
       </c>
       <c r="F35">
-        <v>0.563665</v>
+        <v>0.492182</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1010,10 +1007,10 @@
         <v>0.000188</v>
       </c>
       <c r="D36">
-        <v>7.7E-05</v>
+        <v>0.000102</v>
       </c>
       <c r="F36">
-        <v>0.587301</v>
+        <v>0.455867</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1027,10 +1024,10 @@
         <v>0.002376</v>
       </c>
       <c r="D37">
-        <v>0.001313</v>
+        <v>0.001982</v>
       </c>
       <c r="F37">
-        <v>0.447687</v>
+        <v>0.165877</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1044,10 +1041,10 @@
         <v>0.00121</v>
       </c>
       <c r="D38">
-        <v>0.000593</v>
+        <v>0.000728</v>
       </c>
       <c r="F38">
-        <v>0.509956</v>
+        <v>0.39841</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1061,10 +1058,10 @@
         <v>0.000583</v>
       </c>
       <c r="D39">
-        <v>0.000281</v>
+        <v>0.000321</v>
       </c>
       <c r="F39">
-        <v>0.518631</v>
+        <v>0.449214</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1078,10 +1075,10 @@
         <v>0.000219</v>
       </c>
       <c r="D40">
-        <v>0.00013</v>
+        <v>0.000164</v>
       </c>
       <c r="F40">
-        <v>0.405985</v>
+        <v>0.251425</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1095,10 +1092,10 @@
         <v>0.00014</v>
       </c>
       <c r="D41">
-        <v>9.6E-05</v>
+        <v>0.00011</v>
       </c>
       <c r="F41">
-        <v>0.312281</v>
+        <v>0.215386</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1112,10 +1109,10 @@
         <v>0.001442</v>
       </c>
       <c r="D42">
-        <v>0.000722</v>
+        <v>0.000875</v>
       </c>
       <c r="F42">
-        <v>0.499346</v>
+        <v>0.393235</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1129,10 +1126,10 @@
         <v>0.000973</v>
       </c>
       <c r="D43">
-        <v>0.000369</v>
+        <v>0.000436</v>
       </c>
       <c r="F43">
-        <v>0.621235</v>
+        <v>0.551832</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1146,10 +1143,10 @@
         <v>0.0005330000000000001</v>
       </c>
       <c r="D44">
-        <v>0.000195</v>
+        <v>0.000239</v>
       </c>
       <c r="F44">
-        <v>0.634347</v>
+        <v>0.552422</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1163,10 +1160,10 @@
         <v>0.00024</v>
       </c>
       <c r="D45">
-        <v>0.000117</v>
+        <v>0.000143</v>
       </c>
       <c r="F45">
-        <v>0.513791</v>
+        <v>0.404507</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1180,10 +1177,10 @@
         <v>0.002333</v>
       </c>
       <c r="D46">
-        <v>0.00095</v>
+        <v>0.0013</v>
       </c>
       <c r="F46">
-        <v>0.592886</v>
+        <v>0.442545</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1197,10 +1194,10 @@
         <v>0.00128</v>
       </c>
       <c r="D47">
-        <v>0.000539</v>
+        <v>0.000662</v>
       </c>
       <c r="F47">
-        <v>0.579017</v>
+        <v>0.482702</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1214,10 +1211,10 @@
         <v>0.000675</v>
       </c>
       <c r="D48">
-        <v>0.000296</v>
+        <v>0.000358</v>
       </c>
       <c r="F48">
-        <v>0.561211</v>
+        <v>0.469475</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1231,10 +1228,10 @@
         <v>0.000307</v>
       </c>
       <c r="D49">
-        <v>0.000166</v>
+        <v>0.000201</v>
       </c>
       <c r="F49">
-        <v>0.460451</v>
+        <v>0.343822</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1248,10 +1245,10 @@
         <v>0.002852</v>
       </c>
       <c r="D50">
-        <v>0.001526</v>
+        <v>0.001981</v>
       </c>
       <c r="F50">
-        <v>0.464856</v>
+        <v>0.305339</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1265,10 +1262,10 @@
         <v>0.001836</v>
       </c>
       <c r="D51">
-        <v>0.000898</v>
+        <v>0.00111</v>
       </c>
       <c r="F51">
-        <v>0.5106270000000001</v>
+        <v>0.395524</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1282,10 +1279,10 @@
         <v>0.0009790000000000001</v>
       </c>
       <c r="D52">
-        <v>0.000532</v>
+        <v>0.000638</v>
       </c>
       <c r="F52">
-        <v>0.456827</v>
+        <v>0.34758</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1299,10 +1296,10 @@
         <v>0.000467</v>
       </c>
       <c r="D53">
-        <v>0.000295</v>
+        <v>0.000363</v>
       </c>
       <c r="F53">
-        <v>0.366731</v>
+        <v>0.22178</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1316,10 +1313,10 @@
         <v>0.001937</v>
       </c>
       <c r="D54">
-        <v>0.001346</v>
+        <v>0.001264</v>
       </c>
       <c r="F54">
-        <v>0.305276</v>
+        <v>0.34757</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1333,10 +1330,10 @@
         <v>0.000802</v>
       </c>
       <c r="D55">
-        <v>0.000521</v>
+        <v>0.000509</v>
       </c>
       <c r="F55">
-        <v>0.3502</v>
+        <v>0.365048</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1350,10 +1347,10 @@
         <v>0.000353</v>
       </c>
       <c r="D56">
-        <v>0.000197</v>
+        <v>0.000216</v>
       </c>
       <c r="F56">
-        <v>0.443108</v>
+        <v>0.388575</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1367,10 +1364,10 @@
         <v>0.000159</v>
       </c>
       <c r="D57">
-        <v>9.8E-05</v>
+        <v>0.000124</v>
       </c>
       <c r="F57">
-        <v>0.384503</v>
+        <v>0.222272</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1384,10 +1381,10 @@
         <v>0.002717</v>
       </c>
       <c r="D58">
-        <v>0.001625</v>
+        <v>0.001977</v>
       </c>
       <c r="F58">
-        <v>0.401985</v>
+        <v>0.2723</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1401,10 +1398,10 @@
         <v>0.001656</v>
       </c>
       <c r="D59">
-        <v>0.000849</v>
+        <v>0.001042</v>
       </c>
       <c r="F59">
-        <v>0.487242</v>
+        <v>0.37078</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1418,10 +1415,10 @@
         <v>0.000879</v>
       </c>
       <c r="D60">
-        <v>0.000398</v>
+        <v>0.000527</v>
       </c>
       <c r="F60">
-        <v>0.547423</v>
+        <v>0.400365</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1435,10 +1432,10 @@
         <v>0.000424</v>
       </c>
       <c r="D61">
-        <v>0.000186</v>
+        <v>0.000214</v>
       </c>
       <c r="F61">
-        <v>0.560794</v>
+        <v>0.494316</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1452,10 +1449,10 @@
         <v>0.000165</v>
       </c>
       <c r="D62">
-        <v>8.500000000000001E-05</v>
+        <v>0.000111</v>
       </c>
       <c r="F62">
-        <v>0.484976</v>
+        <v>0.330419</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1469,10 +1466,10 @@
         <v>0.002532</v>
       </c>
       <c r="D63">
-        <v>0.001458</v>
+        <v>0.002239</v>
       </c>
       <c r="F63">
-        <v>0.424145</v>
+        <v>0.115558</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1486,10 +1483,10 @@
         <v>0.001355</v>
       </c>
       <c r="D64">
-        <v>0.000662</v>
+        <v>0.000833</v>
       </c>
       <c r="F64">
-        <v>0.5114570000000001</v>
+        <v>0.385154</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1503,10 +1500,10 @@
         <v>0.000603</v>
       </c>
       <c r="D65">
-        <v>0.000312</v>
+        <v>0.000359</v>
       </c>
       <c r="F65">
-        <v>0.481632</v>
+        <v>0.404622</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1520,10 +1517,10 @@
         <v>0.000239</v>
       </c>
       <c r="D66">
-        <v>0.000143</v>
+        <v>0.000178</v>
       </c>
       <c r="F66">
-        <v>0.400243</v>
+        <v>0.252598</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1537,10 +1534,10 @@
         <v>0.000156</v>
       </c>
       <c r="D67">
-        <v>0.000104</v>
+        <v>0.000125</v>
       </c>
       <c r="F67">
-        <v>0.330846</v>
+        <v>0.201791</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1554,10 +1551,10 @@
         <v>0.001661</v>
       </c>
       <c r="D68">
-        <v>0.0008050000000000001</v>
+        <v>0.00099</v>
       </c>
       <c r="F68">
-        <v>0.515467</v>
+        <v>0.403816</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1571,10 +1568,10 @@
         <v>0.001039</v>
       </c>
       <c r="D69">
-        <v>0.000408</v>
+        <v>0.000485</v>
       </c>
       <c r="F69">
-        <v>0.60716</v>
+        <v>0.533826</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1588,10 +1585,10 @@
         <v>0.000595</v>
       </c>
       <c r="D70">
-        <v>0.000214</v>
+        <v>0.000258</v>
       </c>
       <c r="F70">
-        <v>0.6404300000000001</v>
+        <v>0.5661310000000001</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1605,10 +1602,10 @@
         <v>0.000307</v>
       </c>
       <c r="D71">
-        <v>0.000126</v>
+        <v>0.000156</v>
       </c>
       <c r="F71">
-        <v>0.588272</v>
+        <v>0.492417</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1622,10 +1619,10 @@
         <v>0.002571</v>
       </c>
       <c r="D72">
-        <v>0.001046</v>
+        <v>0.001459</v>
       </c>
       <c r="F72">
-        <v>0.593032</v>
+        <v>0.432574</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1639,10 +1636,10 @@
         <v>0.001468</v>
       </c>
       <c r="D73">
-        <v>0.000593</v>
+        <v>0.000736</v>
       </c>
       <c r="F73">
-        <v>0.596019</v>
+        <v>0.498615</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1656,10 +1653,10 @@
         <v>0.0008140000000000001</v>
       </c>
       <c r="D74">
-        <v>0.000324</v>
+        <v>0.000394</v>
       </c>
       <c r="F74">
-        <v>0.601519</v>
+        <v>0.516695</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1673,10 +1670,10 @@
         <v>0.000385</v>
       </c>
       <c r="D75">
-        <v>0.00018</v>
+        <v>0.000221</v>
       </c>
       <c r="F75">
-        <v>0.533323</v>
+        <v>0.426079</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1690,10 +1687,10 @@
         <v>0.00319</v>
       </c>
       <c r="D76">
-        <v>0.001673</v>
+        <v>0.002201</v>
       </c>
       <c r="F76">
-        <v>0.475679</v>
+        <v>0.310174</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1707,10 +1704,10 @@
         <v>0.002046</v>
       </c>
       <c r="D77">
-        <v>0.0009829999999999999</v>
+        <v>0.00122</v>
       </c>
       <c r="F77">
-        <v>0.519601</v>
+        <v>0.403455</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1724,10 +1721,10 @@
         <v>0.00119</v>
       </c>
       <c r="D78">
-        <v>0.00058</v>
+        <v>0.000695</v>
       </c>
       <c r="F78">
-        <v>0.513189</v>
+        <v>0.416066</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1741,10 +1738,10 @@
         <v>0.000603</v>
       </c>
       <c r="D79">
-        <v>0.00032</v>
+        <v>0.00039</v>
       </c>
       <c r="F79">
-        <v>0.468607</v>
+        <v>0.3534</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1758,10 +1755,10 @@
         <v>0.001494</v>
       </c>
       <c r="D80">
-        <v>0.001057</v>
+        <v>0.001159</v>
       </c>
       <c r="F80">
-        <v>0.292403</v>
+        <v>0.224372</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1775,10 +1772,10 @@
         <v>0.000687</v>
       </c>
       <c r="D81">
-        <v>0.000395</v>
+        <v>0.000407</v>
       </c>
       <c r="F81">
-        <v>0.425294</v>
+        <v>0.407524</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1792,10 +1789,10 @@
         <v>0.000359</v>
       </c>
       <c r="D82">
-        <v>0.000179</v>
+        <v>0.000213</v>
       </c>
       <c r="F82">
-        <v>0.499847</v>
+        <v>0.404865</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1809,10 +1806,10 @@
         <v>0.002438</v>
       </c>
       <c r="D83">
-        <v>0.001568</v>
+        <v>0.002165</v>
       </c>
       <c r="F83">
-        <v>0.356786</v>
+        <v>0.111656</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -1826,10 +1823,10 @@
         <v>0.001313</v>
       </c>
       <c r="D84">
-        <v>0.000705</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="F84">
-        <v>0.462708</v>
+        <v>0.291119</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -1843,10 +1840,10 @@
         <v>0.000696</v>
       </c>
       <c r="D85">
-        <v>0.000324</v>
+        <v>0.000362</v>
       </c>
       <c r="F85">
-        <v>0.534676</v>
+        <v>0.479545</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -1860,10 +1857,10 @@
         <v>0.000348</v>
       </c>
       <c r="D86">
-        <v>0.000138</v>
+        <v>0.000174</v>
       </c>
       <c r="F86">
-        <v>0.604171</v>
+        <v>0.500291</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -1877,10 +1874,10 @@
         <v>0.003559</v>
       </c>
       <c r="D87">
-        <v>0.002375</v>
+        <v>0.003889</v>
       </c>
       <c r="F87">
-        <v>0.332792</v>
+        <v>-0.092737</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -1894,10 +1891,10 @@
         <v>0.001845</v>
       </c>
       <c r="D88">
-        <v>0.001109</v>
+        <v>0.001544</v>
       </c>
       <c r="F88">
-        <v>0.398836</v>
+        <v>0.163068</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -1911,10 +1908,10 @@
         <v>0.000922</v>
       </c>
       <c r="D89">
-        <v>0.00052</v>
+        <v>0.000625</v>
       </c>
       <c r="F89">
-        <v>0.436146</v>
+        <v>0.322555</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -1928,10 +1925,10 @@
         <v>0.000437</v>
       </c>
       <c r="D90">
-        <v>0.000231</v>
+        <v>0.000265</v>
       </c>
       <c r="F90">
-        <v>0.472461</v>
+        <v>0.393387</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -1945,10 +1942,10 @@
         <v>0.000267</v>
       </c>
       <c r="D91">
-        <v>0.000157</v>
+        <v>0.000209</v>
       </c>
       <c r="F91">
-        <v>0.411244</v>
+        <v>0.218006</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -1962,10 +1959,10 @@
         <v>0.002563</v>
       </c>
       <c r="D92">
-        <v>0.001338</v>
+        <v>0.001792</v>
       </c>
       <c r="F92">
-        <v>0.477956</v>
+        <v>0.300728</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -1979,10 +1976,10 @@
         <v>0.001443</v>
       </c>
       <c r="D93">
-        <v>0.000663</v>
+        <v>0.000836</v>
       </c>
       <c r="F93">
-        <v>0.54078</v>
+        <v>0.420313</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -1996,10 +1993,10 @@
         <v>0.000821</v>
       </c>
       <c r="D94">
-        <v>0.000337</v>
+        <v>0.000405</v>
       </c>
       <c r="F94">
-        <v>0.58983</v>
+        <v>0.507056</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2013,10 +2010,10 @@
         <v>0.0004</v>
       </c>
       <c r="D95">
-        <v>0.000188</v>
+        <v>0.000229</v>
       </c>
       <c r="F95">
-        <v>0.529824</v>
+        <v>0.427708</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2030,10 +2027,10 @@
         <v>0.003058</v>
       </c>
       <c r="D96">
-        <v>0.001641</v>
+        <v>0.002469</v>
       </c>
       <c r="F96">
-        <v>0.463623</v>
+        <v>0.192705</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2047,10 +2044,10 @@
         <v>0.001922</v>
       </c>
       <c r="D97">
-        <v>0.000932</v>
+        <v>0.001203</v>
       </c>
       <c r="F97">
-        <v>0.514981</v>
+        <v>0.373843</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2064,10 +2061,10 @@
         <v>0.001104</v>
       </c>
       <c r="D98">
-        <v>0.0005</v>
+        <v>0.000622</v>
       </c>
       <c r="F98">
-        <v>0.546855</v>
+        <v>0.436126</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2081,10 +2078,10 @@
         <v>0.000532</v>
       </c>
       <c r="D99">
-        <v>0.000267</v>
+        <v>0.000326</v>
       </c>
       <c r="F99">
-        <v>0.497457</v>
+        <v>0.386054</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2098,10 +2095,10 @@
         <v>0.003851</v>
       </c>
       <c r="D100">
-        <v>0.002556</v>
+        <v>0.00358</v>
       </c>
       <c r="F100">
-        <v>0.336085</v>
+        <v>0.070326</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2115,10 +2112,10 @@
         <v>0.00258</v>
       </c>
       <c r="D101">
-        <v>0.001494</v>
+        <v>0.001943</v>
       </c>
       <c r="F101">
-        <v>0.420775</v>
+        <v>0.246722</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2132,10 +2129,10 @@
         <v>0.001592</v>
       </c>
       <c r="D102">
-        <v>0.00087</v>
+        <v>0.001058</v>
       </c>
       <c r="F102">
-        <v>0.453481</v>
+        <v>0.335174</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2149,10 +2146,10 @@
         <v>0.000796</v>
       </c>
       <c r="D103">
-        <v>0.000473</v>
+        <v>0.000553</v>
       </c>
       <c r="F103">
-        <v>0.40597</v>
+        <v>0.304601</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2166,10 +2163,10 @@
         <v>0.001189</v>
       </c>
       <c r="D104">
-        <v>0.000594</v>
+        <v>0.000506</v>
       </c>
       <c r="F104">
-        <v>0.500216</v>
+        <v>0.574684</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2183,10 +2180,10 @@
         <v>0.000478</v>
       </c>
       <c r="D105">
-        <v>0.000234</v>
+        <v>0.000247</v>
       </c>
       <c r="F105">
-        <v>0.510057</v>
+        <v>0.48305</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2200,10 +2197,10 @@
         <v>0.000209</v>
       </c>
       <c r="D106">
-        <v>9.3E-05</v>
+        <v>0.000108</v>
       </c>
       <c r="F106">
-        <v>0.557361</v>
+        <v>0.485085</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2217,10 +2214,10 @@
         <v>9.2E-05</v>
       </c>
       <c r="D107">
-        <v>5.3E-05</v>
+        <v>6.4E-05</v>
       </c>
       <c r="F107">
-        <v>0.426362</v>
+        <v>0.306682</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2234,10 +2231,10 @@
         <v>0.001768</v>
       </c>
       <c r="D108">
-        <v>0.000781</v>
+        <v>0.000853</v>
       </c>
       <c r="F108">
-        <v>0.5584170000000001</v>
+        <v>0.5176770000000001</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2251,10 +2248,10 @@
         <v>0.001152</v>
       </c>
       <c r="D109">
-        <v>0.000423</v>
+        <v>0.000452</v>
       </c>
       <c r="F109">
-        <v>0.63236</v>
+        <v>0.607773</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2268,10 +2265,10 @@
         <v>0.000589</v>
       </c>
       <c r="D110">
-        <v>0.000209</v>
+        <v>0.000299</v>
       </c>
       <c r="F110">
-        <v>0.645169</v>
+        <v>0.491989</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2285,10 +2282,10 @@
         <v>0.000316</v>
       </c>
       <c r="D111">
-        <v>0.000104</v>
+        <v>0.000127</v>
       </c>
       <c r="F111">
-        <v>0.672386</v>
+        <v>0.599209</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2302,10 +2299,10 @@
         <v>0.000124</v>
       </c>
       <c r="D112">
-        <v>5.3E-05</v>
+        <v>8.2E-05</v>
       </c>
       <c r="F112">
-        <v>0.572145</v>
+        <v>0.34203</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2319,10 +2316,10 @@
         <v>0.001918</v>
       </c>
       <c r="D113">
-        <v>0.00083</v>
+        <v>0.001131</v>
       </c>
       <c r="F113">
-        <v>0.566959</v>
+        <v>0.410167</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2336,10 +2333,10 @@
         <v>0.000922</v>
       </c>
       <c r="D114">
-        <v>0.000369</v>
+        <v>0.000432</v>
       </c>
       <c r="F114">
-        <v>0.599973</v>
+        <v>0.532011</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2353,10 +2350,10 @@
         <v>0.000437</v>
       </c>
       <c r="D115">
-        <v>0.000179</v>
+        <v>0.000212</v>
       </c>
       <c r="F115">
-        <v>0.590342</v>
+        <v>0.51405</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2370,10 +2367,10 @@
         <v>0.000184</v>
       </c>
       <c r="D116">
-        <v>8.8E-05</v>
+        <v>0.000115</v>
       </c>
       <c r="F116">
-        <v>0.524047</v>
+        <v>0.376508</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2387,10 +2384,10 @@
         <v>9.7E-05</v>
       </c>
       <c r="D117">
-        <v>6.9E-05</v>
+        <v>7.6E-05</v>
       </c>
       <c r="F117">
-        <v>0.284764</v>
+        <v>0.212783</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2404,10 +2401,10 @@
         <v>0.001221</v>
       </c>
       <c r="D118">
-        <v>0.000452</v>
+        <v>0.000511</v>
       </c>
       <c r="F118">
-        <v>0.6301290000000001</v>
+        <v>0.581378</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2421,10 +2418,10 @@
         <v>0.000777</v>
       </c>
       <c r="D119">
-        <v>0.000239</v>
+        <v>0.000283</v>
       </c>
       <c r="F119">
-        <v>0.692739</v>
+        <v>0.636325</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2438,10 +2435,10 @@
         <v>0.000466</v>
       </c>
       <c r="D120">
-        <v>0.000132</v>
+        <v>0.000171</v>
       </c>
       <c r="F120">
-        <v>0.71606</v>
+        <v>0.63261</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2455,10 +2452,10 @@
         <v>0.0002</v>
       </c>
       <c r="D121">
-        <v>8.4E-05</v>
+        <v>0.0001</v>
       </c>
       <c r="F121">
-        <v>0.577479</v>
+        <v>0.497582</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2472,10 +2469,10 @@
         <v>0.001881</v>
       </c>
       <c r="D122">
-        <v>0.000624</v>
+        <v>0.000787</v>
       </c>
       <c r="F122">
-        <v>0.6683480000000001</v>
+        <v>0.58142</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2489,10 +2486,10 @@
         <v>0.001165</v>
       </c>
       <c r="D123">
-        <v>0.000357</v>
+        <v>0.000427</v>
       </c>
       <c r="F123">
-        <v>0.694031</v>
+        <v>0.633949</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2506,10 +2503,10 @@
         <v>0.000675</v>
       </c>
       <c r="D124">
-        <v>0.000202</v>
+        <v>0.000253</v>
       </c>
       <c r="F124">
-        <v>0.700076</v>
+        <v>0.625515</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2523,10 +2520,10 @@
         <v>0.000286</v>
       </c>
       <c r="D125">
-        <v>0.000119</v>
+        <v>0.000131</v>
       </c>
       <c r="F125">
-        <v>0.585684</v>
+        <v>0.543485</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2540,10 +2537,10 @@
         <v>0.002536</v>
       </c>
       <c r="D126">
-        <v>0.001023</v>
+        <v>0.001272</v>
       </c>
       <c r="F126">
-        <v>0.596589</v>
+        <v>0.498578</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2557,10 +2554,10 @@
         <v>0.001629</v>
       </c>
       <c r="D127">
-        <v>0.000608</v>
+        <v>0.000745</v>
       </c>
       <c r="F127">
-        <v>0.626642</v>
+        <v>0.542733</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2574,10 +2571,10 @@
         <v>0.000985</v>
       </c>
       <c r="D128">
-        <v>0.000367</v>
+        <v>0.000452</v>
       </c>
       <c r="F128">
-        <v>0.627069</v>
+        <v>0.5413559999999999</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2585,16 +2582,16 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129">
         <v>0.000455</v>
       </c>
       <c r="D129">
-        <v>0.000249</v>
+        <v>0.000247</v>
       </c>
       <c r="F129">
-        <v>0.452031</v>
+        <v>0.456566</v>
       </c>
     </row>
   </sheetData>
